--- a/biology/Médecine/François_Clément_(médecin)/François_Clément_(médecin).xlsx
+++ b/biology/Médecine/François_Clément_(médecin)/François_Clément_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Cl%C3%A9ment_(m%C3%A9decin)</t>
+          <t>François_Clément_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Clément, né à Paris le 21 février 1929, est un médecin et écrivain vaudois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Cl%C3%A9ment_(m%C3%A9decin)</t>
+          <t>François_Clément_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 21 février 1929 dans un atelier de peintre de la rue d'Assas à Paris, François Clément est médecin, spécialiste des hémopathies malignes. Dès 1965, il traite des patients atteints de leucémies et de lymphomes dans son cabinet médical ainsi qu'au Centre hospitalier universitaire vaudois (CHUV) de Lausanne. 
 Privat-docent à la Faculté de médecine de Lausanne, il enseigne l'hématologie pendant plus de trente ans.
